--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_110.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_110.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,16 +477,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>46.2005116883768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.000462005116883768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.9995379948831162</v>
       </c>
       <c r="F2" t="n">
-        <v>65.884957367959</v>
+        <v>69.45287751385069</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99953.79948831162</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>48.71157621430764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.00048734091614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.99951265908386</v>
       </c>
       <c r="F3" t="n">
-        <v>64.91523544157755</v>
+        <v>68.48474882079284</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99905.08791209731</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>51.39612353697329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0005144495101410129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.999485550489859</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681884253731</v>
+        <v>67.51789672489664</v>
       </c>
     </row>
     <row r="5">
@@ -534,19 +534,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99853.69178856033</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>54.26597723556107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0005434548914873272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9994565451085127</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978507754945</v>
+        <v>66.55239179500938</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99799.42581132478</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>57.33374392484049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0005744897173379782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.999425510282662</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421545763224</v>
+        <v>65.58830780915839</v>
       </c>
     </row>
     <row r="7">
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99742.09206739994</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>60.61286177990573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0006076959137667481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9993923040862333</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019524315571</v>
+        <v>64.62572186670504</v>
       </c>
     </row>
     <row r="8">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99681.47920562002</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>64.11765157077124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.000643225322113361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9993567746778866</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781379058562</v>
+        <v>63.66471450151562</v>
       </c>
     </row>
     <row r="9">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99617.36155404925</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>67.86337025757881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0006812403902181074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9993187596097819</v>
       </c>
       <c r="F9" t="n">
-        <v>59.1271647005314</v>
+        <v>62.70536979586186</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>99549.49818379167</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>71.86626718468067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0007219149116352019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9992780850883648</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834596665294</v>
+        <v>61.74777549473009</v>
       </c>
     </row>
     <row r="11">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>99477.63191660699</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>76.14364289419774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0007654348161205693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9992345651838794</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146012492832</v>
+        <v>60.79202312018484</v>
       </c>
     </row>
     <row r="12">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>99401.48827371279</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>80.71391055945219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0008119990149161316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9991880009850839</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661440272889</v>
+        <v>59.83820808539573</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>99320.77436315334</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>85.59666001380383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0008618203045903661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9991381796954096</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392086708877</v>
+        <v>58.88642980789914</v>
       </c>
     </row>
     <row r="14">
@@ -714,19 +714,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>99235.17770313953</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>90.81272431993236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0009151263334419291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9990848736665581</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349657149408</v>
+        <v>57.93679182162614</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>99144.36497881961</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>96.38424878942273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0009721606347472544</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9990278393652527</v>
       </c>
       <c r="F15" t="n">
-        <v>53.40546370045212</v>
+        <v>56.98940188718693</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>99047.98073003018</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>102.3347623195129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.001033183731412368</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9989668162685876</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994971103281</v>
+        <v>56.04437209985892</v>
       </c>
     </row>
     <row r="17">
@@ -774,19 +774,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>98945.64596771066</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>108.6892508640192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.001098474316894027</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.998901525683106</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708747050464</v>
+        <v>55.10181899468115</v>
       </c>
     </row>
     <row r="18">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>98836.95671684665</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>115.4742327969516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.001168330517579252</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9988316694824207</v>
       </c>
       <c r="F18" t="n">
-        <v>50.57701538911414</v>
+        <v>54.16186364801205</v>
       </c>
     </row>
     <row r="19">
@@ -814,19 +814,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>98721.48248404969</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>122.7178358578939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.00124307124214551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9987569287578545</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987754698397</v>
+        <v>53.22463177486033</v>
       </c>
     </row>
     <row r="20">
@@ -834,19 +834,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>98598.76464819179</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>130.4498752893032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.001323037623795376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9986769623762046</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582381402773</v>
+        <v>52.29025382125108</v>
       </c>
     </row>
     <row r="21">
@@ -854,19 +854,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>98468.31477290249</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>138.7019326825395</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.001408594561635668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9985914054383643</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77500996170254</v>
+        <v>51.35886505084067</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>98329.61284021995</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>147.5074349426401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.001500132367879159</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9984998676321208</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759776534249</v>
+        <v>50.43060562494478</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>98182.10540527731</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>156.9017326587981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.001598068527978058</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9984019314720219</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375509573809</v>
+        <v>49.50562067509538</v>
       </c>
     </row>
     <row r="24">
@@ -914,19 +914,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>98025.20367261852</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>166.9221770261364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.001702849581252774</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9982971504187472</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365599854966</v>
+        <v>48.58406036719357</v>
       </c>
     </row>
     <row r="25">
@@ -934,19 +934,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>97858.28149559238</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>177.6081943021936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.001814953130054642</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9981850468699454</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748076006733</v>
+        <v>47.66607995627771</v>
       </c>
     </row>
     <row r="26">
@@ -954,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>97680.67330129018</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>189.0013565980956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.001934889986017319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9980651100139827</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541595775761</v>
+        <v>46.75183983087961</v>
       </c>
     </row>
     <row r="27">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>97491.67194469209</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>201.1454475937747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.002063206462474931</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9979367935375251</v>
       </c>
       <c r="F27" t="n">
-        <v>42.26765449396708</v>
+        <v>45.84150554589733</v>
       </c>
     </row>
     <row r="28">
@@ -994,19 +994,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>97290.52649709831</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>214.0865215298828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.002200486822694581</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9977995131773054</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439561108941</v>
+        <v>44.93524784287089</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>97076.43997556843</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>227.8729535605171</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.00234735589415791</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9976526441058421</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584488644418</v>
+        <v>44.03324265650838</v>
       </c>
     </row>
     <row r="30">
@@ -1034,19 +1034,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>96848.5670220079</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>242.5554792491156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.002504481859747054</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9974955181402529</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221420506451</v>
+        <v>43.13567110627524</v>
       </c>
     </row>
     <row r="31">
@@ -1054,19 +1054,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>96606.01154275879</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>258.1872206515546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.002672579237341544</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9973274207626585</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372170854953</v>
+        <v>42.24271947182869</v>
       </c>
     </row>
     <row r="32">
@@ -1074,19 +1074,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>96347.82432210723</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>274.8236960518864</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.002852412060007747</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9971475879399923</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059171810601</v>
+        <v>41.35457915105547</v>
       </c>
     </row>
     <row r="33">
@@ -1094,19 +1094,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>96073.00062605535</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>292.5228099958998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.003044797269677102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9969552027303229</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305462988519</v>
+        <v>40.47144659945171</v>
       </c>
     </row>
     <row r="34">
@@ -1114,19 +1114,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>95780.47781605944</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>311.3448198008236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.003250608337940664</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9967493916620593</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134678071611</v>
+        <v>39.59352324957375</v>
       </c>
     </row>
     <row r="35">
@@ -1134,19 +1134,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>95469.13299625862</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>331.3522742059463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.003470779128359025</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.996529220871641</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571028234787</v>
+        <v>38.72101540928568</v>
       </c>
     </row>
     <row r="36">
@@ -1154,19 +1154,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>95137.78072205267</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>352.6099192646681</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.003706308015475224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9962936919845248</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639282234311</v>
+        <v>37.85413413753652</v>
       </c>
     </row>
     <row r="37">
@@ -1174,19 +1174,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>94785.17080278801</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>375.1845659639662</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.003958262276538838</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9960417377234612</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364742981384</v>
+        <v>36.99309509641734</v>
       </c>
     </row>
     <row r="38">
@@ -1194,19 +1194,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>94409.98623682404</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>399.1449133909571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.00422778277278546</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9957722172272145</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773220426241</v>
+        <v>36.13811837827745</v>
       </c>
     </row>
     <row r="39">
@@ -1214,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>94010.84132343308</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>424.5613205509231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.004516088937979723</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9954839110620203</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891000588515</v>
+        <v>35.28942830672044</v>
       </c>
     </row>
     <row r="40">
@@ -1234,19 +1234,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>93586.28000288215</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>451.5055191780766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.004824484092798342</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9951755159072017</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744810581741</v>
+        <v>34.44725321035651</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>93134.77448370408</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>480.050259076648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.005154361104515726</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9948456388954843</v>
       </c>
       <c r="F41" t="n">
-        <v>30.13361779494715</v>
+        <v>33.61182516825708</v>
       </c>
     </row>
     <row r="42">
@@ -1274,19 +1274,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>92654.72422462744</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>510.268876692755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.005507208412338316</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9944927915876617</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769395010237</v>
+        <v>32.78337972614435</v>
       </c>
     </row>
     <row r="43">
@@ -1294,19 +1294,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>92144.45534793468</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>542.2347767600128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.005884616439617019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.994115383560383</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995455662601</v>
+        <v>31.96215558245066</v>
       </c>
     </row>
     <row r="44">
@@ -1314,19 +1314,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>91602.22057117466</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>576.0208159996484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.006288284415027712</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9937117155849723</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068018659308</v>
+        <v>31.14839424350345</v>
       </c>
     </row>
     <row r="45">
@@ -1334,19 +1334,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>91026.19975517501</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>611.6985770130998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.006720027625654268</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9932799723743457</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015343219831</v>
+        <v>30.34233964723013</v>
       </c>
     </row>
     <row r="46">
@@ -1354,19 +1354,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>90414.50117816191</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>649.3375197091494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.007181785125702667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9928182148742973</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865829414999</v>
+        <v>29.54423775493501</v>
       </c>
     </row>
     <row r="47">
@@ -1374,19 +1374,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>89765.16365845276</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>689.0039968975561</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.007675627925317952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.992324372074682</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647952524708</v>
+        <v>28.75433611087842</v>
       </c>
     </row>
     <row r="48">
@@ -1394,19 +1394,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>89076.1596615552</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>730.7601201034911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.008203767684642149</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.9917962323153579</v>
       </c>
       <c r="F48" t="n">
-        <v>24.60390192969054</v>
+        <v>27.97288336958433</v>
       </c>
     </row>
     <row r="49">
@@ -1414,19 +1414,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>88345.39954145171</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>774.6624612702767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.008768565938816142</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9912314340611839</v>
       </c>
       <c r="F49" t="n">
-        <v>23.8512096190873</v>
+        <v>27.20012879102053</v>
       </c>
     </row>
     <row r="50">
@@ -1434,19 +1434,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>87570.73708018144</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>820.7605758939399</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.009372543880068473</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9906274561199315</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868522654289</v>
+        <v>26.4363217040315</v>
       </c>
     </row>
     <row r="51">
@@ -1454,19 +1454,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>86749.97650428749</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>869.0953333587398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.01001839272332006</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9899816072766799</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660908070531</v>
+        <v>25.68171093865935</v>
       </c>
     </row>
     <row r="52">
@@ -1474,19 +1474,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>85880.88117092875</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>919.6970409210629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.01070898468182446</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9892910153181755</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525834211487</v>
+        <v>24.93654422826217</v>
       </c>
     </row>
     <row r="53">
@@ -1494,19 +1494,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>84961.18413000769</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>972.5833490417634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.01144738457921579</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9885526154207842</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490610472905</v>
+        <v>24.20106758262926</v>
       </c>
     </row>
     <row r="54">
@@ -1514,19 +1514,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>83988.60078096593</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>1027.756927737309</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.01223686212391606</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.9877631378760839</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582046602275</v>
+        <v>23.47552463359852</v>
       </c>
     </row>
     <row r="55">
@@ -1534,19 +1534,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>82960.84385322862</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>1085.202906468794</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.01308090487108227</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9869190951289177</v>
       </c>
       <c r="F55" t="n">
-        <v>19.5582635696075</v>
+        <v>22.76015595500065</v>
       </c>
     </row>
     <row r="56">
@@ -1554,19 +1554,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>81875.64094675983</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>1144.886074001123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.01398323189610928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9860167681038907</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249062486252</v>
+        <v>22.05519835908422</v>
       </c>
     </row>
     <row r="57">
@@ -1574,19 +1574,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>80730.7548727587</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>1206.747839845526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.0149478082020601</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9850521917979399</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874890861698</v>
+        <v>21.36088417191408</v>
       </c>
     </row>
     <row r="58">
@@ -1594,19 +1594,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>79524.00703291317</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>1270.70296556957</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.01597885988118852</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9840211401188115</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727675446133</v>
+        <v>20.67744049057778</v>
       </c>
     </row>
     <row r="59">
@@ -1614,19 +1614,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>78253.3040673436</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>1336.636082656613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.01708089004786717</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9829191099521328</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830253578406</v>
+        <v>20.00508842537828</v>
       </c>
     </row>
     <row r="60">
@@ -1634,19 +1634,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>76916.667984687</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>1404.398023960967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.01825869555660631</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9817413044433937</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204364912273</v>
+        <v>19.3440423305313</v>
       </c>
     </row>
     <row r="61">
@@ -1654,19 +1654,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>75512.26996072603</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>1473.802008374458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.01951738451434426</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9804826154856557</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870550487143</v>
+        <v>18.6945090272178</v>
       </c>
     </row>
     <row r="62">
@@ -1674,19 +1674,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>74038.46795235157</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>1544.619733309694</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.02086239459065731</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9791376054093427</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848053279364</v>
+        <v>18.05668702316118</v>
       </c>
     </row>
     <row r="63">
@@ -1694,19 +1694,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>72493.84821904187</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>1616.577447190317</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.02229951212281889</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9777004878771811</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154721013696</v>
+        <v>17.43076573319983</v>
       </c>
     </row>
     <row r="64">
@@ -1714,19 +1714,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>70877.27077185156</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>1689.352094425835</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.02383489200457123</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9761651079954288</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806912042515</v>
+        <v>16.81692470560235</v>
       </c>
     </row>
     <row r="65">
@@ -1734,19 +1734,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>69187.91867742573</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>1762.567648339148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.02547507833783458</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9745249216621654</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819405120271</v>
+        <v>16.21533285911994</v>
       </c>
     </row>
     <row r="66">
@@ -1754,19 +1754,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>67425.35102908658</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>1835.79177306685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.02722702581518499</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.972772974184815</v>
       </c>
       <c r="F66" t="n">
-        <v>12.82205313911772</v>
+        <v>15.62614773598157</v>
       </c>
     </row>
     <row r="67">
@@ -1774,19 +1774,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>65589.55925601973</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>1908.532983219923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.02909812178749716</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.9709018782125028</v>
       </c>
       <c r="F67" t="n">
-        <v>12.28976007074163</v>
+        <v>15.04951477620696</v>
       </c>
     </row>
     <row r="68">
@@ -1794,19 +1794,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>63681.02627279981</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>1980.238499475583</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.03109620895543586</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9689037910445641</v>
       </c>
       <c r="F68" t="n">
-        <v>11.77141034743093</v>
+        <v>14.48556661873352</v>
       </c>
     </row>
     <row r="69">
@@ -1814,19 +1814,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>61700.78777332422</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>2050.293028337866</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.03322960860516422</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9667703913948358</v>
       </c>
       <c r="F69" t="n">
-        <v>11.26708062232986</v>
+        <v>13.93442243492085</v>
       </c>
     </row>
     <row r="70">
@@ -1834,19 +1834,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>59650.49474498635</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>2118.018723725343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.03550714428740531</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9644928557125947</v>
       </c>
       <c r="F70" t="n">
-        <v>10.77682811728953</v>
+        <v>13.39618730000404</v>
       </c>
     </row>
     <row r="71">
@@ -1854,19 +1854,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>57532.47602126101</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>2182.676615012045</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.0379381658144774</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9620618341855226</v>
       </c>
       <c r="F71" t="n">
-        <v>10.30069012703415</v>
+        <v>12.87095160800955</v>
       </c>
     </row>
     <row r="72">
@@ -1874,19 +1874,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>55349.79940624897</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>2243.469808311924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.040532573421732</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.959467426578268</v>
       </c>
       <c r="F72" t="n">
-        <v>9.838683617339417</v>
+        <v>12.35879053551973</v>
       </c>
     </row>
     <row r="73">
@@ -1894,19 +1894,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>53106.32959793705</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>2299.54878221064</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.04330084190755235</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9566991580924477</v>
       </c>
       <c r="F73" t="n">
-        <v>9.390804923301433</v>
+        <v>11.85976355946916</v>
       </c>
     </row>
     <row r="74">
@@ -1914,19 +1914,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>50806.78081572641</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>2350.019102237742</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.04625404452923598</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.953745955470764</v>
       </c>
       <c r="F74" t="n">
-        <v>8.957029552972523</v>
+        <v>11.3739140338738</v>
       </c>
     </row>
     <row r="75">
@@ -1934,19 +1934,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>48456.76171348867</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>2393.951865965413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.04940387639025867</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9505961236097413</v>
       </c>
       <c r="F75" t="n">
-        <v>8.53731210072884</v>
+        <v>10.90126883002769</v>
       </c>
     </row>
     <row r="76">
@@ -1954,19 +1954,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>46062.80984752325</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>2430.397158022382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.05276267700705761</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.9472373229929424</v>
       </c>
       <c r="F76" t="n">
-        <v>8.131586273723041</v>
+        <v>10.44183804424794</v>
       </c>
     </row>
     <row r="77">
@@ -1974,19 +1974,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>43632.41268950087</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>2458.400736493284</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.05634345169009736</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9436565483099026</v>
       </c>
       <c r="F77" t="n">
-        <v>7.739765033676642</v>
+        <v>9.995614776701547</v>
       </c>
     </row>
     <row r="78">
@@ -1994,19 +1994,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>41174.01195300759</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>2477.024084056962</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.06015989131406529</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9398401086859347</v>
       </c>
       <c r="F78" t="n">
-        <v>7.361740855094633</v>
+        <v>9.562574984201911</v>
       </c>
     </row>
     <row r="79">
@@ -2014,19 +2014,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>38696.98786895063</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>2485.367834118656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.06422638998506769</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9357736100149323</v>
       </c>
       <c r="F79" t="n">
-        <v>6.997386099757511</v>
+        <v>9.142677409110597</v>
       </c>
     </row>
     <row r="80">
@@ -2034,19 +2034,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>36211.62003483198</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>2482.598420428355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.06855806003819609</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9314419399618039</v>
       </c>
       <c r="F80" t="n">
-        <v>6.64655350608168</v>
+        <v>8.73586358560879</v>
       </c>
     </row>
     <row r="81">
@@ -2054,19 +2054,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>33729.02161440362</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>2467.97759635038</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.0731707437163388</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9268292562836612</v>
       </c>
       <c r="F81" t="n">
-        <v>6.309076790659242</v>
+        <v>8.342057923595881</v>
       </c>
     </row>
     <row r="82">
@@ -2074,19 +2074,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>31261.04401805325</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>2440.894227899693</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>0.078081020790287</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
+        <v>0.921918979209713</v>
       </c>
       <c r="F82" t="n">
-        <v>5.984771358014414</v>
+        <v>7.961167869301456</v>
       </c>
     </row>
     <row r="83">
@@ -2094,19 +2094,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>28820.14979015355</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>2400.897487561395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.08330621128075</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.91669378871925</v>
       </c>
       <c r="F83" t="n">
-        <v>5.67343511336859</v>
+        <v>7.593084140319267</v>
       </c>
     </row>
     <row r="84">
@@ -2114,19 +2114,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>26419.25230259216</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>2347.730273423365</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.0888643723347543</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.9111356276652457</v>
       </c>
       <c r="F84" t="n">
-        <v>5.374849372011492</v>
+        <v>7.237681031120874</v>
       </c>
     </row>
     <row r="85">
@@ -2134,19 +2134,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>24071.5220291688</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>2281.361366016253</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.09477428819215505</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9052257118078449</v>
       </c>
       <c r="F85" t="n">
-        <v>5.088779857753481</v>
+        <v>6.894816783079765</v>
       </c>
     </row>
     <row r="86">
@@ -2154,19 +2154,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>21790.16066315255</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>2202.014536122532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.101055452053007</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.898944547946993</v>
       </c>
       <c r="F86" t="n">
-        <v>4.814977781902276</v>
+        <v>6.564334010474077</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>19588.14612703001</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>2110.192560587464</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.1077280385240528</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.8922719614759472</v>
       </c>
       <c r="F87" t="n">
-        <v>4.553180993282296</v>
+        <v>6.246060170589815</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>17477.95356644255</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>2006.693926511497</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.114812865183732</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.885187134816268</v>
       </c>
       <c r="F88" t="n">
-        <v>4.303115189006394</v>
+        <v>5.939808061529804</v>
       </c>
     </row>
     <row r="89">
@@ -2214,19 +2214,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>15471.25963993105</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>1892.619948948317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.1223313416616381</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.8776686583383619</v>
       </c>
       <c r="F89" t="n">
-        <v>4.064495175020539</v>
+        <v>5.645376325039909</v>
       </c>
     </row>
     <row r="90">
@@ -2234,19 +2234,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>13578.63969098274</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>1769.37013725709</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.1303054044826072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.8696945955173928</v>
       </c>
       <c r="F90" t="n">
-        <v>3.837026164861875</v>
+        <v>5.362549922634068</v>
       </c>
     </row>
     <row r="91">
@@ -2254,19 +2254,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>11809.26955372565</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>1638.623961719865</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.1387574357808526</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.8612425642191474</v>
       </c>
       <c r="F91" t="n">
-        <v>3.620405104569922</v>
+        <v>5.091100540001945</v>
       </c>
     </row>
     <row r="92">
@@ -2274,19 +2274,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>10170.64559200578</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>1502.30772685477</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1477101638499327</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8522898361500673</v>
       </c>
       <c r="F92" t="n">
-        <v>3.414322011206233</v>
+        <v>4.830786854647046</v>
       </c>
     </row>
     <row r="93">
@@ -2294,19 +2294,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>8668.337865151012</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>1362.546065745091</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1571865433652376</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8428134566347624</v>
       </c>
       <c r="F93" t="n">
-        <v>3.218461311847397</v>
+        <v>4.581354570893298</v>
       </c>
     </row>
     <row r="94">
@@ -2314,19 +2314,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>7305.791799405921</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>1221.598619465112</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1672096130038153</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8327903869961847</v>
       </c>
       <c r="F94" t="n">
-        <v>3.032503168988556</v>
+        <v>4.34253607813713</v>
       </c>
     </row>
     <row r="95">
@@ -2334,19 +2334,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>6084.193179940809</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>1081.783712003765</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1778023281000241</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8221976718999759</v>
       </c>
       <c r="F95" t="n">
-        <v>2.856124776589779</v>
+        <v>4.114049511302456</v>
       </c>
     </row>
     <row r="96">
@@ -2354,19 +2354,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>5002.409467937045</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>945.3921886226514</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1889873659247898</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8110126340752102</v>
       </c>
       <c r="F96" t="n">
-        <v>2.6890016076632</v>
+        <v>3.895596867783544</v>
       </c>
     </row>
     <row r="97">
@@ -2374,19 +2374,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>4057.017279314393</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>814.5959275197723</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.2007869011732267</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.7992130988267733</v>
       </c>
       <c r="F97" t="n">
-        <v>2.530808587643084</v>
+        <v>3.686860629681202</v>
       </c>
     </row>
     <row r="98">
@@ -2394,19 +2394,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>3242.421351794621</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>691.3566980641526</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.2132223493043245</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.7867776506956755</v>
       </c>
       <c r="F98" t="n">
-        <v>2.381221154354171</v>
+        <v>3.487497995665289</v>
       </c>
     </row>
     <row r="99">
@@ -2414,19 +2414,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>2551.064653730468</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>577.3418386852203</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.2263140755139086</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.7736859244860914</v>
       </c>
       <c r="F99" t="n">
-        <v>2.239916137960575</v>
+        <v>3.29713123907843</v>
       </c>
     </row>
     <row r="100">
@@ -2434,19 +2434,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>1973.722815045248</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>473.8534801032815</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2400810673571802</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7599189326428198</v>
       </c>
       <c r="F100" t="n">
-        <v>2.106572337210454</v>
+        <v>3.115331687643639</v>
       </c>
     </row>
     <row r="101">
@@ -2454,19 +2454,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>1499.869334941967</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>381.777594528648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2545405693912796</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7454594306087204</v>
       </c>
       <c r="F101" t="n">
-        <v>1.980870546787546</v>
+        <v>2.941593011175718</v>
       </c>
     </row>
     <row r="102">
@@ -2474,19 +2474,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>1118.091740413319</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>301.5579278863569</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2697076787052212</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7302923212947788</v>
       </c>
       <c r="F102" t="n">
-        <v>1.862492524607977</v>
+        <v>2.775286234130789</v>
       </c>
     </row>
     <row r="103">
@@ -2494,19 +2494,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>816.5338125269617</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>233.1978932455229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2855949008698556</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7144050991301444</v>
       </c>
       <c r="F103" t="n">
-        <v>1.751117787103016</v>
+        <v>2.615582853311121</v>
       </c>
     </row>
     <row r="104">
@@ -2514,19 +2514,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>583.3359192814388</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>176.2909204127268</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>0.3022116667012112</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
+        <v>0.6977883332987888</v>
       </c>
       <c r="F104" t="n">
-        <v>1.646415715674901</v>
+        <v>2.461321043042726</v>
       </c>
     </row>
     <row r="105">
@@ -2534,19 +2534,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>407.044998868712</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>130.0768512148084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.319563811314049</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.680436188685951</v>
       </c>
       <c r="F105" t="n">
-        <v>1.548027047272425</v>
+        <v>2.310767892565065</v>
       </c>
     </row>
     <row r="106">
@@ -2554,19 +2554,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>276.9681476539036</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>93.51913102143297</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.3376530182752042</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.6623469817247958</v>
       </c>
       <c r="F106" t="n">
-        <v>1.455520204328098</v>
+        <v>2.161186930786258</v>
       </c>
     </row>
     <row r="107">
@@ -2574,19 +2574,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>183.4490166324706</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>65.39521444660107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.3564762332720298</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.6435237667279702</v>
       </c>
       <c r="F107" t="n">
-        <v>1.36828518528714</v>
+        <v>2.008031253438214</v>
       </c>
     </row>
     <row r="108">
@@ -2594,19 +2594,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>118.0538021858696</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>44.3911872956379</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3760250536085766</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6239749463914234</v>
       </c>
       <c r="F108" t="n">
-        <v>1.285264941629911</v>
+        <v>1.843396361420925</v>
       </c>
     </row>
     <row r="109">
@@ -2614,19 +2614,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>73.66261489023165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>29.19139685841386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.396285102041428</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.603714897958572</v>
       </c>
       <c r="F109" t="n">
-        <v>1.2042419775484</v>
+        <v>1.652965225911818</v>
       </c>
     </row>
     <row r="110">
@@ -2634,19 +2634,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>44.47121803181779</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>18.55496626462636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.4172353959666868</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.5827646040333132</v>
       </c>
       <c r="F110" t="n">
-        <v>1.119840784590156</v>
+        <v>1.409784286938264</v>
       </c>
     </row>
     <row r="111">
@@ -2654,19 +2654,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>25.91625176719143</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>11.37328814802948</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.4388477257512771</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.5611522742487229</v>
       </c>
       <c r="F111" t="n">
-        <v>1.017604460221203</v>
+        <v>1.061152274248723</v>
       </c>
     </row>
     <row r="112">
@@ -2674,38 +2674,18 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>14.54296361916196</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>14.54296361916196</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8553113699548578</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.03602749942377004</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.03602749942377004</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
         <v>0.5</v>
       </c>
     </row>
